--- a/project1/ex1/doc/data1.xlsx
+++ b/project1/ex1/doc/data1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>heap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>insertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n*logn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k+n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,6 +144,6898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.44000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>876.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9670.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94451.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D956-42AC-BE62-F21D63F8EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4472.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44662.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D956-42AC-BE62-F21D63F8EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1992.8400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13535.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104914.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D956-42AC-BE62-F21D63F8EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>counting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>298.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.81999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3314.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D956-42AC-BE62-F21D63F8EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55999999999999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11084.939999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660223.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43422953.100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D956-42AC-BE62-F21D63F8EAAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1279322191"/>
+        <c:axId val="1279326767"/>
+        <c:axId val="1281979775"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1279322191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279326767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279326767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279322191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1281979775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279326767"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.44000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>876.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9670.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94451.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4094-44A0-9954-8FCE3288A3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4472.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44662.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4094-44A0-9954-8FCE3288A3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1992.8400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13535.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104914.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4094-44A0-9954-8FCE3288A3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>counting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>298.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.81999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3314.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4094-44A0-9954-8FCE3288A3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1285554175"/>
+        <c:axId val="1285556255"/>
+        <c:axId val="1178099711"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1285554175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285556255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285556255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285554175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1178099711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285556255"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CC3-45C2-A2D9-C83D982A2E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n*logn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4718592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CC3-45C2-A2D9-C83D982A2E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1321943967"/>
+        <c:axId val="1321941055"/>
+        <c:axId val="1321128079"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1321943967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321941055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1321941055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321943967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1321128079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321941055"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4718592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0711-40AF-84B0-FFD99EBDE2E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1285360015"/>
+        <c:axId val="1285357519"/>
+        <c:axId val="1321137999"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1285360015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285357519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285357519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285360015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1321137999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285357519"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3111-42C1-A3D5-98C1D503A946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n*logn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4718592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3111-42C1-A3D5-98C1D503A946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k+n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>262152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3111-42C1-A3D5-98C1D503A946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1275622815"/>
+        <c:axId val="1275625311"/>
+        <c:axId val="1321135519"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1275622815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275625311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275625311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275622815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1321135519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275625311"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n*logn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4718592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEFF-472F-9260-F70182570509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k+n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>262152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEFF-472F-9260-F70182570509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1323922431"/>
+        <c:axId val="1323931583"/>
+        <c:axId val="1321125599"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1323922431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323931583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1323931583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323922431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1321125599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323931583"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,15 +7301,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +7329,32 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -417,8 +7373,70 @@
       <c r="F2">
         <v>1.4</v>
       </c>
+      <c r="H2">
+        <f>B2+B11+B20+B28+B36</f>
+        <v>5.4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:L7" si="0">C2+C11+C20+C28+C36</f>
+        <v>2.6</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>1491.6</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999994</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <f>H2/5</f>
+        <v>1.08</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:R7" si="1">I2/5</f>
+        <v>0.52</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="1"/>
+        <v>4.34</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="1"/>
+        <v>298.32</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999983</v>
+      </c>
+      <c r="S2">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <f>S2*S2</f>
+        <v>64</v>
+      </c>
+      <c r="V2">
+        <f>S2*LOG(S2,2)</f>
+        <v>24</v>
+      </c>
+      <c r="W2">
+        <f>POWER(2,18)+S2</f>
+        <v>262152</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -437,8 +7455,70 @@
       <c r="F3">
         <v>4.2</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">B3+B12+B21+B29+B37</f>
+        <v>38.9</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>150.69999999999999</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1351.8999999999999</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="3">H3/5</f>
+        <v>7.7799999999999994</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>4.1400000000000006</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>30.139999999999997</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>270.38</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="S3">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U7" si="4">S3*S3</f>
+        <v>4096</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V7" si="5">S3*LOG(S3,2)</f>
+        <v>384</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" si="6">POWER(2,18)+S3</f>
+        <v>262208</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -457,8 +7537,70 @@
       <c r="F4">
         <v>198.2</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>547.20000000000005</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>285.60000000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1551.6</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>953.6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>909.6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>109.44000000000001</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>57.120000000000005</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>310.32</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>190.72</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>181.92000000000002</v>
+      </c>
+      <c r="S4">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="5"/>
+        <v>4608</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="6"/>
+        <v>262656</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -477,8 +7619,70 @@
       <c r="F5">
         <v>12117</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4383.8999999999996</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2199.2000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>9964.2000000000007</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1230.3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>55424.7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>876.78</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>439.84000000000003</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>1992.8400000000001</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>246.06</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>11084.939999999999</v>
+      </c>
+      <c r="S5">
+        <f>POWER(2,12)</f>
+        <v>4096</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>16777216</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>49152</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>266240</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -497,8 +7701,70 @@
       <c r="F6">
         <v>602583.6</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>48352.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>22364</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>67677.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3124.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3301119.3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>9670.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>4472.8</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>13535.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>624.81999999999994</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>660223.86</v>
+      </c>
+      <c r="S6">
+        <f>POWER(2,15)</f>
+        <v>32768</v>
+      </c>
+      <c r="T6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>1073741824</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>491520</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>294912</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -517,8 +7783,70 @@
       <c r="F7">
         <v>38000988</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>472255.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>223311.30000000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>524572</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>16573.900000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>217114765.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>94451.12</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>44662.26</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>104914.4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>3314.78</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>43422953.100000001</v>
+      </c>
+      <c r="S7">
+        <f>POWER(2,18)</f>
+        <v>262144</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>68719476736</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>524288</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -535,7 +7863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -555,22 +7883,22 @@
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
       <c r="J11">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K11">
-        <v>327.9</v>
+        <v>350.2</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -590,22 +7918,22 @@
         <v>3.3</v>
       </c>
       <c r="H12">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="I12">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J12">
-        <v>32.1</v>
+        <v>29.3</v>
       </c>
       <c r="K12">
-        <v>269.10000000000002</v>
+        <v>338.4</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -625,22 +7953,22 @@
         <v>193.8</v>
       </c>
       <c r="H13">
-        <v>113.9</v>
+        <v>106.8</v>
       </c>
       <c r="I13">
-        <v>43.5</v>
+        <v>95.8</v>
       </c>
       <c r="J13">
-        <v>255</v>
+        <v>282.7</v>
       </c>
       <c r="K13">
-        <v>188.2</v>
+        <v>177.1</v>
       </c>
       <c r="L13">
-        <v>193.8</v>
+        <v>158.30000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -660,22 +7988,22 @@
         <v>11000.6</v>
       </c>
       <c r="H14">
-        <v>878.3</v>
+        <v>885.9</v>
       </c>
       <c r="I14">
-        <v>449.7</v>
+        <v>435.7</v>
       </c>
       <c r="J14">
-        <v>1943</v>
+        <v>1868.4</v>
       </c>
       <c r="K14">
-        <v>230</v>
+        <v>231.7</v>
       </c>
       <c r="L14">
-        <v>11000.6</v>
+        <v>10805.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -695,22 +8023,22 @@
         <v>622385.19999999995</v>
       </c>
       <c r="H15">
-        <v>8791</v>
+        <v>9740.6</v>
       </c>
       <c r="I15">
-        <v>4324.6000000000004</v>
+        <v>4978.2</v>
       </c>
       <c r="J15">
-        <v>12274</v>
+        <v>14512.3</v>
       </c>
       <c r="K15">
-        <v>556.9</v>
+        <v>643.9</v>
       </c>
       <c r="L15">
-        <v>622385.19999999995</v>
+        <v>734945.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -730,19 +8058,19 @@
         <v>38158987</v>
       </c>
       <c r="H16">
-        <v>87778</v>
+        <v>101954.8</v>
       </c>
       <c r="I16">
-        <v>39773</v>
+        <v>48840.7</v>
       </c>
       <c r="J16">
-        <v>98658.1</v>
+        <v>110762.5</v>
       </c>
       <c r="K16">
-        <v>2604.8000000000002</v>
+        <v>3794.6</v>
       </c>
       <c r="L16">
-        <v>38158987</v>
+        <v>49813043.700000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,8 +8210,283 @@
         <v>40733113.700000003</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E28">
+        <v>350.2</v>
+      </c>
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>7.5</v>
+      </c>
+      <c r="C29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D29">
+        <v>29.3</v>
+      </c>
+      <c r="E29">
+        <v>338.4</v>
+      </c>
+      <c r="F29">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>106.8</v>
+      </c>
+      <c r="C30">
+        <v>95.8</v>
+      </c>
+      <c r="D30">
+        <v>282.7</v>
+      </c>
+      <c r="E30">
+        <v>177.1</v>
+      </c>
+      <c r="F30">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>885.9</v>
+      </c>
+      <c r="C31">
+        <v>435.7</v>
+      </c>
+      <c r="D31">
+        <v>1868.4</v>
+      </c>
+      <c r="E31">
+        <v>231.7</v>
+      </c>
+      <c r="F31">
+        <v>10805.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>9740.6</v>
+      </c>
+      <c r="C32">
+        <v>4978.2</v>
+      </c>
+      <c r="D32">
+        <v>14512.3</v>
+      </c>
+      <c r="E32">
+        <v>643.9</v>
+      </c>
+      <c r="F32">
+        <v>734945.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>101954.8</v>
+      </c>
+      <c r="C33">
+        <v>48840.7</v>
+      </c>
+      <c r="D33">
+        <v>110762.5</v>
+      </c>
+      <c r="E33">
+        <v>3794.6</v>
+      </c>
+      <c r="F33">
+        <v>49813043.700000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1.6</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>4.3</v>
+      </c>
+      <c r="E36">
+        <v>254.8</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>7.9</v>
+      </c>
+      <c r="C37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D37">
+        <v>30.5</v>
+      </c>
+      <c r="E37">
+        <v>230.6</v>
+      </c>
+      <c r="F37">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>115.8</v>
+      </c>
+      <c r="C38">
+        <v>42.6</v>
+      </c>
+      <c r="D38">
+        <v>389.6</v>
+      </c>
+      <c r="E38">
+        <v>175.9</v>
+      </c>
+      <c r="F38">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>908.6</v>
+      </c>
+      <c r="C39">
+        <v>474.1</v>
+      </c>
+      <c r="D39">
+        <v>2352.1999999999998</v>
+      </c>
+      <c r="E39">
+        <v>236.5</v>
+      </c>
+      <c r="F39">
+        <v>11355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>10717.9</v>
+      </c>
+      <c r="C40">
+        <v>4313.5</v>
+      </c>
+      <c r="D40">
+        <v>17347.2</v>
+      </c>
+      <c r="E40">
+        <v>828.5</v>
+      </c>
+      <c r="F40">
+        <v>733619.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>105595.7</v>
+      </c>
+      <c r="C41">
+        <v>49098.1</v>
+      </c>
+      <c r="D41">
+        <v>116041.60000000001</v>
+      </c>
+      <c r="E41">
+        <v>4939</v>
+      </c>
+      <c r="F41">
+        <v>50408633.100000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project1/ex1/doc/data1.xlsx
+++ b/project1/ex1/doc/data1.xlsx
@@ -161,6 +161,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>T(μs)-Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>关系图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -869,12 +905,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -912,6 +943,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>T(μs)-Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1536,12 +1596,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1579,290 +1634,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n^2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$2:$T$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$2:$U$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1073741824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68719476736</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CC3-45C2-A2D9-C83D982A2E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n*logn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$2:$T$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>491520</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4718592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CC3-45C2-A2D9-C83D982A2E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1321943967"/>
-        <c:axId val="1321941055"/>
-        <c:axId val="1321128079"/>
-      </c:line3DChart>
-      <c:catAx>
-        <c:axId val="1321943967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1874,582 +1652,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>函数增长速率比较图</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1321941055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1321941055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1321943967"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="1321128079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1321941055"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$T$2:$T$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>491520</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4718592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0711-40AF-84B0-FFD99EBDE2E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1285360015"/>
-        <c:axId val="1285357519"/>
-        <c:axId val="1321137999"/>
-      </c:line3DChart>
-      <c:catAx>
-        <c:axId val="1285360015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1285357519"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1285357519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1285360015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="1321137999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1285357519"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2990,12 +2199,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3018,7 +2222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3033,6 +2237,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>函数增长速率比较图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3489,12 +2718,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3677,86 +2901,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
@@ -5306,1038 +4450,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6917,66 +5029,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -6999,7 +5051,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7029,7 +5081,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7303,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
